--- a/datasets/heights/heights.xlsx
+++ b/datasets/heights/heights.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\datasets\heights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9BE45D-4C6F-4F88-A0CF-C932235AD3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F5367-5DF0-4D8C-9DC0-E49D6286C8F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-7" windowWidth="25786" windowHeight="14587" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$201</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$201</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -101,6 +107,706 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Distribution of heights</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Distribution of heights</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E5C20F7B-E14D-4FF5-A8FE-4A9349CF55BC}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Height(Inches)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="15"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>575309</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30055</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128276</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C310E2D-A757-4750-A859-B3CB17A954BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3360842" y="295069"/>
+              <a:ext cx="4568613" cy="2745740"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,18 +1074,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -393,18 +1099,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14757709-E3AE-40D0-87BD-FC5A7CA14799}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="14.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -415,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -426,7 +1132,7 @@
         <v>112.99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -437,7 +1143,7 @@
         <v>136.49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -448,7 +1154,7 @@
         <v>153.03</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -459,7 +1165,7 @@
         <v>142.34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -470,7 +1176,7 @@
         <v>144.30000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -481,7 +1187,7 @@
         <v>123.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -492,7 +1198,7 @@
         <v>141.49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -503,7 +1209,7 @@
         <v>136.46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -514,7 +1220,7 @@
         <v>112.37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -525,7 +1231,7 @@
         <v>120.67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -536,7 +1242,7 @@
         <v>127.45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -547,7 +1253,7 @@
         <v>114.14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -558,7 +1264,7 @@
         <v>125.61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -569,7 +1275,7 @@
         <v>122.46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -580,7 +1286,7 @@
         <v>116.09</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -591,7 +1297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -602,7 +1308,7 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -613,7 +1319,7 @@
         <v>142.97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -624,7 +1330,7 @@
         <v>137.9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -635,7 +1341,7 @@
         <v>124.04</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -646,7 +1352,7 @@
         <v>141.28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -657,7 +1363,7 @@
         <v>143.54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -668,7 +1374,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -679,7 +1385,7 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -690,7 +1396,7 @@
         <v>141.85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -701,7 +1407,7 @@
         <v>129.72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -712,7 +1418,7 @@
         <v>142.41999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -723,7 +1429,7 @@
         <v>131.55000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -734,7 +1440,7 @@
         <v>108.33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -745,7 +1451,7 @@
         <v>113.89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -756,7 +1462,7 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -767,7 +1473,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -778,7 +1484,7 @@
         <v>125.79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -789,7 +1495,7 @@
         <v>136.22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -800,7 +1506,7 @@
         <v>140.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -811,7 +1517,7 @@
         <v>128.75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -822,7 +1528,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -833,7 +1539,7 @@
         <v>121.23</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -844,7 +1550,7 @@
         <v>131.35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -855,7 +1561,7 @@
         <v>106.71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -866,7 +1572,7 @@
         <v>124.36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -877,7 +1583,7 @@
         <v>124.86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -888,7 +1594,7 @@
         <v>139.66999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -899,7 +1605,7 @@
         <v>137.37</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -910,7 +1616,7 @@
         <v>106.45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -921,7 +1627,7 @@
         <v>128.76</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -932,7 +1638,7 @@
         <v>145.68</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -943,7 +1649,7 @@
         <v>116.82</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -954,7 +1660,7 @@
         <v>143.62</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -965,7 +1671,7 @@
         <v>134.93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -976,7 +1682,7 @@
         <v>147.02000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -987,7 +1693,7 @@
         <v>126.33</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -998,7 +1704,7 @@
         <v>125.48</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1009,7 +1715,7 @@
         <v>115.71</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1020,7 +1726,7 @@
         <v>123.49</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1031,7 +1737,7 @@
         <v>147.88999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1042,7 +1748,7 @@
         <v>155.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1053,7 +1759,7 @@
         <v>128.07</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1064,7 +1770,7 @@
         <v>119.37</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1075,7 +1781,7 @@
         <v>133.81</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1086,7 +1792,7 @@
         <v>128.72999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1097,7 +1803,7 @@
         <v>137.55000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1108,7 +1814,7 @@
         <v>129.76</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1119,7 +1825,7 @@
         <v>128.82</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1130,7 +1836,7 @@
         <v>135.32</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1141,7 +1847,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1152,7 +1858,7 @@
         <v>142.47</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1163,7 +1869,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1174,7 +1880,7 @@
         <v>103.53</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1185,7 +1891,7 @@
         <v>124.73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1196,7 +1902,7 @@
         <v>129.31</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1207,7 +1913,7 @@
         <v>134.02000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1218,7 +1924,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1229,7 +1935,7 @@
         <v>102.84</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1240,7 +1946,7 @@
         <v>128.52000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1251,7 +1957,7 @@
         <v>120.3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1262,7 +1968,7 @@
         <v>138.6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1273,7 +1979,7 @@
         <v>132.96</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1284,7 +1990,7 @@
         <v>115.62</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1295,7 +2001,7 @@
         <v>122.52</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1306,7 +2012,7 @@
         <v>134.63</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1317,7 +2023,7 @@
         <v>121.9</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1328,7 +2034,7 @@
         <v>155.38</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1339,7 +2045,7 @@
         <v>128.94</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1350,7 +2056,7 @@
         <v>129.1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1361,7 +2067,7 @@
         <v>139.47</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1372,7 +2078,7 @@
         <v>140.88999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1383,7 +2089,7 @@
         <v>131.59</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1394,7 +2100,7 @@
         <v>121.12</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1405,7 +2111,7 @@
         <v>131.51</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1416,7 +2122,7 @@
         <v>136.55000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1427,7 +2133,7 @@
         <v>141.49</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1438,7 +2144,7 @@
         <v>140.61000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1449,7 +2155,7 @@
         <v>112.14</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1460,7 +2166,7 @@
         <v>133.46</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1471,7 +2177,7 @@
         <v>131.80000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1482,7 +2188,7 @@
         <v>120.03</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1493,7 +2199,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1504,7 +2210,7 @@
         <v>128.13999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1515,7 +2221,7 @@
         <v>115.48</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1526,7 +2232,7 @@
         <v>102.09</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1537,7 +2243,7 @@
         <v>130.35</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1548,7 +2254,7 @@
         <v>134.18</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1559,7 +2265,7 @@
         <v>98.64</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1570,7 +2276,7 @@
         <v>114.56</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1581,7 +2287,7 @@
         <v>123.49</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1592,7 +2298,7 @@
         <v>123.05</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1603,7 +2309,7 @@
         <v>126.48</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1614,7 +2320,7 @@
         <v>128.41999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1625,7 +2331,7 @@
         <v>127.19</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1636,7 +2342,7 @@
         <v>122.06</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1647,7 +2353,7 @@
         <v>127.61</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1658,7 +2364,7 @@
         <v>131.63999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1669,7 +2375,7 @@
         <v>111.9</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1680,7 +2386,7 @@
         <v>122.04</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1691,7 +2397,7 @@
         <v>128.55000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1702,7 +2408,7 @@
         <v>132.68</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1713,7 +2419,7 @@
         <v>136.06</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1724,7 +2430,7 @@
         <v>115.94</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1735,7 +2441,7 @@
         <v>136.9</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1746,7 +2452,7 @@
         <v>119.88</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1757,7 +2463,7 @@
         <v>109.01</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1768,7 +2474,7 @@
         <v>128.27000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1779,7 +2485,7 @@
         <v>135.29</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1790,7 +2496,7 @@
         <v>106.86</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1801,7 +2507,7 @@
         <v>123.29</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1812,7 +2518,7 @@
         <v>109.51</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1823,7 +2529,7 @@
         <v>119.31</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1834,7 +2540,7 @@
         <v>140.24</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1845,7 +2551,7 @@
         <v>133.97999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1856,7 +2562,7 @@
         <v>132.58000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1867,7 +2573,7 @@
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -1878,7 +2584,7 @@
         <v>115.56</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1889,7 +2595,7 @@
         <v>123.79</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1900,7 +2606,7 @@
         <v>128.13999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -1911,7 +2617,7 @@
         <v>135.96</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -1922,7 +2628,7 @@
         <v>116.63</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1933,7 +2639,7 @@
         <v>126.82</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -1944,7 +2650,7 @@
         <v>151.38999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -1955,7 +2661,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -1966,7 +2672,7 @@
         <v>136.21</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -1977,7 +2683,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -1988,7 +2694,7 @@
         <v>125.33</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -1999,7 +2705,7 @@
         <v>127.58</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2010,7 +2716,7 @@
         <v>107.16</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2021,7 +2727,7 @@
         <v>116.46</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2032,7 +2738,7 @@
         <v>133.84</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2043,7 +2749,7 @@
         <v>112.89</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2054,7 +2760,7 @@
         <v>130.76</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2065,7 +2771,7 @@
         <v>137.76</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2076,7 +2782,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2087,7 +2793,7 @@
         <v>138.47</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2098,7 +2804,7 @@
         <v>120.82</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2109,7 +2815,7 @@
         <v>140.15</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2120,7 +2826,7 @@
         <v>136.74</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2131,7 +2837,7 @@
         <v>106.11</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2142,7 +2848,7 @@
         <v>158.96</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2153,7 +2859,7 @@
         <v>108.79</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2164,7 +2870,7 @@
         <v>138.78</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2175,7 +2881,7 @@
         <v>115.91</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2186,7 +2892,7 @@
         <v>146.29</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2197,7 +2903,7 @@
         <v>109.88</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2208,7 +2914,7 @@
         <v>139.05000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2219,7 +2925,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2230,7 +2936,7 @@
         <v>128.31</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2241,7 +2947,7 @@
         <v>127.24</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2252,7 +2958,7 @@
         <v>115.23</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2263,7 +2969,7 @@
         <v>124.8</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2274,7 +2980,7 @@
         <v>126.95</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2285,7 +2991,7 @@
         <v>111.27</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2296,7 +3002,7 @@
         <v>122.61</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2307,7 +3013,7 @@
         <v>124.21</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2318,7 +3024,7 @@
         <v>124.65</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2329,7 +3035,7 @@
         <v>119.52</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2340,7 +3046,7 @@
         <v>139.30000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2351,7 +3057,7 @@
         <v>104.83</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2362,7 +3068,7 @@
         <v>123.04</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2373,7 +3079,7 @@
         <v>118.89</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -2384,7 +3090,7 @@
         <v>121.49</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -2395,7 +3101,7 @@
         <v>119.25</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -2406,7 +3112,7 @@
         <v>135.02000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -2417,7 +3123,7 @@
         <v>116.23</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -2428,7 +3134,7 @@
         <v>109.17</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -2439,7 +3145,7 @@
         <v>124.22</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -2450,7 +3156,7 @@
         <v>141.16</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -2461,7 +3167,7 @@
         <v>129.15</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -2472,7 +3178,7 @@
         <v>127.87</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -2483,7 +3189,7 @@
         <v>120.92</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -2494,7 +3200,7 @@
         <v>127.65</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -2505,7 +3211,7 @@
         <v>101.47</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -2516,7 +3222,7 @@
         <v>144.99</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -2527,7 +3233,7 @@
         <v>110.95</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -2538,7 +3244,7 @@
         <v>132.86000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -2549,7 +3255,7 @@
         <v>146.34</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -2560,7 +3266,7 @@
         <v>145.59</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -2571,7 +3277,7 @@
         <v>120.84</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -2582,7 +3288,7 @@
         <v>115.78</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -2593,7 +3299,7 @@
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -2604,7 +3310,7 @@
         <v>127.47</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2617,5 +3323,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/datasets/heights/heights.xlsx
+++ b/datasets/heights/heights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\datasets\heights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F5367-5DF0-4D8C-9DC0-E49D6286C8F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3038E4-E168-4A67-A2D8-8D41018755A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-7" windowWidth="25786" windowHeight="14587" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86520" yWindow="60" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Distribution of heights</a:t>
+            <a:t>Distribution of student heights</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -775,8 +775,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3360842" y="295069"/>
-              <a:ext cx="4568613" cy="2745740"/>
+              <a:off x="3352799" y="294011"/>
+              <a:ext cx="4562051" cy="2733675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>

--- a/datasets/heights/heights.xlsx
+++ b/datasets/heights/heights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\datasets\heights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3038E4-E168-4A67-A2D8-8D41018755A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90820781-402D-4F84-9D51-7C0BB4E4A8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86520" yWindow="60" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25673" yWindow="-40" windowWidth="25746" windowHeight="13333" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$201</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$201</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$201</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$201</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -122,7 +128,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Distribution of heights</cx:v>
+          <cx:v>Distribution of student heights</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -149,7 +155,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{E5C20F7B-E14D-4FF5-A8FE-4A9349CF55BC}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{A7EDB351-7B93-4C7F-95F4-A07268959713}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.2</cx:f>
@@ -159,7 +165,7 @@
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
-              <cx:binCount val="15"/>
+              <cx:binCount val="18"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -731,24 +737,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>575309</xdr:colOff>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>113036</xdr:rowOff>
+      <xdr:rowOff>51653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>30055</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>512231</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>128276</xdr:rowOff>
+      <xdr:rowOff>63083</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
+            <xdr:cNvPr id="5" name="Chart 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C310E2D-A757-4750-A859-B3CB17A954BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8B1196-DF76-4E84-9338-F9775DBE463B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -775,8 +781,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3352799" y="294011"/>
-              <a:ext cx="4562051" cy="2733675"/>
+              <a:off x="3204632" y="233686"/>
+              <a:ext cx="4567766" cy="2741930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -826,7 +832,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -838,7 +844,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1101,7 +1107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
